--- a/testData/dummy_patient.xlsx
+++ b/testData/dummy_patient.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chavezmunoz.a/Documents/Classes/CapstoneC2023/testData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD5EF095-64C1-C74A-BED8-49A84E998458}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B386B032-498C-7F41-8190-74B014520102}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="13780" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Baseline" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="93">
   <si>
     <t>Record ID</t>
   </si>
@@ -300,9 +300,6 @@
   </si>
   <si>
     <t>185/50</t>
-  </si>
-  <si>
-    <t>Irrelevant</t>
   </si>
 </sst>
 </file>
@@ -907,7 +904,7 @@
   <dimension ref="A1:AJ4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AF17" sqref="AF17"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1243,8 +1240,8 @@
       </c>
     </row>
     <row r="4" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>93</v>
+      <c r="A4">
+        <v>40</v>
       </c>
       <c r="B4" t="s">
         <v>75</v>

--- a/testData/dummy_patient.xlsx
+++ b/testData/dummy_patient.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chavezmunoz.a/Documents/Classes/CapstoneC2023/testData/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kksta\CapstoneC2023\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B386B032-498C-7F41-8190-74B014520102}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAA97BB7-06C4-4A0F-A875-17C4E90E6C15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="13780" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Baseline" sheetId="1" r:id="rId1"/>
@@ -381,9 +381,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2013 - 2022">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -421,9 +421,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -456,26 +456,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -508,26 +491,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -703,13 +669,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AD3"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -801,7 +767,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>39</v>
       </c>
@@ -893,7 +859,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:30" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="3" spans="1:30" ht="16.05" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -903,13 +869,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AJ4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1019,7 +985,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>39</v>
       </c>
@@ -1129,7 +1095,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>39</v>
       </c>
@@ -1239,7 +1205,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>40</v>
       </c>

--- a/testData/dummy_patient.xlsx
+++ b/testData/dummy_patient.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11211"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kksta\CapstoneC2023\testData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chavezmunoz.a/Documents/Classes/CapstoneC2023/testData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAA97BB7-06C4-4A0F-A875-17C4E90E6C15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{033843A5-9C14-2743-96FC-70112F265B39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="23260" windowHeight="12460" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Baseline" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="94">
   <si>
     <t>Record ID</t>
   </si>
@@ -300,13 +300,16 @@
   </si>
   <si>
     <t>185/50</t>
+  </si>
+  <si>
+    <t>Date of TEG Collection</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -322,13 +325,26 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -358,11 +374,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -381,9 +399,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2013 - 2022">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -421,9 +439,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -456,9 +474,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -491,9 +526,26 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -669,13 +721,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AD3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="U1" workbookViewId="0">
       <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -767,7 +819,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>39</v>
       </c>
@@ -859,7 +911,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:30" ht="16.05" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:30" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -867,15 +919,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:AJ4"/>
+  <dimension ref="A1:AK4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" topLeftCell="AA1" workbookViewId="0">
+      <selection activeCell="AO4" sqref="AO4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -984,8 +1036,11 @@
       <c r="AJ1" s="1" t="s">
         <v>72</v>
       </c>
+      <c r="AK1" s="2" t="s">
+        <v>93</v>
+      </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>39</v>
       </c>
@@ -1094,8 +1149,11 @@
       <c r="AJ2" t="s">
         <v>90</v>
       </c>
+      <c r="AK2" s="3">
+        <v>45261</v>
+      </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>39</v>
       </c>
@@ -1204,8 +1262,11 @@
       <c r="AJ3" t="s">
         <v>91</v>
       </c>
+      <c r="AK3" s="3">
+        <v>45262</v>
+      </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>40</v>
       </c>
@@ -1313,6 +1374,9 @@
       </c>
       <c r="AJ4" t="s">
         <v>92</v>
+      </c>
+      <c r="AK4" s="3">
+        <v>45263</v>
       </c>
     </row>
   </sheetData>

--- a/testData/dummy_patient.xlsx
+++ b/testData/dummy_patient.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chavezmunoz.a/Documents/Classes/CapstoneC2023/testData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{033843A5-9C14-2743-96FC-70112F265B39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FAD6774-9F8D-0743-8D58-B8509CDBAF9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="23260" windowHeight="12460" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="23260" windowHeight="12460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Baseline" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="95">
   <si>
     <t>Record ID</t>
   </si>
@@ -77,9 +77,6 @@
     <t>Past hx of cancer</t>
   </si>
   <si>
-    <t>Hx of  DVT</t>
-  </si>
-  <si>
     <t>Hx of stroke</t>
   </si>
   <si>
@@ -303,6 +300,12 @@
   </si>
   <si>
     <t>Date of TEG Collection</t>
+  </si>
+  <si>
+    <t>Hx of DVT</t>
+  </si>
+  <si>
+    <t>T-39</t>
   </si>
 </sst>
 </file>
@@ -721,8 +724,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AD3"/>
   <sheetViews>
-    <sheetView topLeftCell="U1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -783,66 +786,66 @@
         <v>17</v>
       </c>
       <c r="S1" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="T1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>28</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>39</v>
+      <c r="A2" t="s">
+        <v>94</v>
       </c>
       <c r="B2">
         <v>81</v>
       </c>
       <c r="C2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D2">
         <v>1</v>
       </c>
       <c r="E2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F2" t="s">
         <v>31</v>
-      </c>
-      <c r="F2" t="s">
-        <v>32</v>
       </c>
       <c r="G2">
         <v>40.373643141678478</v>
       </c>
       <c r="H2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -857,10 +860,10 @@
         <v>0</v>
       </c>
       <c r="M2" t="s">
+        <v>33</v>
+      </c>
+      <c r="N2" t="s">
         <v>34</v>
-      </c>
-      <c r="N2" t="s">
-        <v>35</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -869,28 +872,28 @@
         <v>2</v>
       </c>
       <c r="Q2" t="s">
+        <v>33</v>
+      </c>
+      <c r="R2" t="s">
+        <v>33</v>
+      </c>
+      <c r="S2" t="s">
         <v>34</v>
       </c>
-      <c r="R2" t="s">
+      <c r="T2" t="s">
+        <v>33</v>
+      </c>
+      <c r="U2" t="s">
         <v>34</v>
       </c>
-      <c r="S2" t="s">
-        <v>35</v>
-      </c>
-      <c r="T2" t="s">
-        <v>34</v>
-      </c>
-      <c r="U2" t="s">
-        <v>35</v>
-      </c>
       <c r="V2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="W2">
         <v>22.033539937572471</v>
       </c>
       <c r="X2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="Y2">
         <v>0</v>
@@ -905,10 +908,10 @@
         <v>0.1045217948752121</v>
       </c>
       <c r="AC2" t="s">
+        <v>35</v>
+      </c>
+      <c r="AD2" t="s">
         <v>36</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:30" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -921,7 +924,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AK4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AA1" workbookViewId="0">
+    <sheetView topLeftCell="S1" workbookViewId="0">
       <selection activeCell="AO4" sqref="AO4"/>
     </sheetView>
   </sheetViews>
@@ -932,112 +935,112 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AG1" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AH1" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AI1" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="AI1" s="1" t="s">
+      <c r="AJ1" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="AJ1" s="1" t="s">
-        <v>72</v>
-      </c>
       <c r="AK1" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="2" spans="1:37" x14ac:dyDescent="0.2">
@@ -1045,19 +1048,19 @@
         <v>39</v>
       </c>
       <c r="B2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G2">
         <v>14.02406962774589</v>
@@ -1102,10 +1105,10 @@
         <v>2.7455495887598609</v>
       </c>
       <c r="U2" t="s">
+        <v>87</v>
+      </c>
+      <c r="V2" t="s">
         <v>88</v>
-      </c>
-      <c r="V2" t="s">
-        <v>89</v>
       </c>
       <c r="W2">
         <v>65.815859622133786</v>
@@ -1147,7 +1150,7 @@
         <v>155.28768519831229</v>
       </c>
       <c r="AJ2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AK2" s="3">
         <v>45261</v>
@@ -1158,19 +1161,19 @@
         <v>39</v>
       </c>
       <c r="B3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G3">
         <v>3.3192506428864421</v>
@@ -1188,7 +1191,7 @@
         <v>11.63880741532582</v>
       </c>
       <c r="L3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M3">
         <v>48.117204480551287</v>
@@ -1260,7 +1263,7 @@
         <v>414.02618054777759</v>
       </c>
       <c r="AJ3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AK3" s="3">
         <v>45262</v>
@@ -1271,19 +1274,19 @@
         <v>40</v>
       </c>
       <c r="B4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E4" t="s">
+        <v>82</v>
+      </c>
+      <c r="F4" t="s">
         <v>83</v>
-      </c>
-      <c r="F4" t="s">
-        <v>84</v>
       </c>
       <c r="G4">
         <v>8.0312426680550875</v>
@@ -1316,13 +1319,13 @@
         <v>4.5768563368901338</v>
       </c>
       <c r="Q4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="R4">
         <v>172.2313432853154</v>
       </c>
       <c r="S4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="T4">
         <v>3.6893336637780521</v>
@@ -1373,7 +1376,7 @@
         <v>495.11840864015687</v>
       </c>
       <c r="AJ4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AK4" s="3">
         <v>45263</v>

--- a/testData/dummy_patient.xlsx
+++ b/testData/dummy_patient.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chavezmunoz.a/Documents/Classes/CapstoneC2023/testData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FAD6774-9F8D-0743-8D58-B8509CDBAF9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CACE1E9-D195-794C-A7B3-C139287BFD44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="23260" windowHeight="12460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="97">
   <si>
     <t>Record ID</t>
   </si>
@@ -306,6 +306,12 @@
   </si>
   <si>
     <t>T-39</t>
+  </si>
+  <si>
+    <t>Female</t>
+  </si>
+  <si>
+    <t>Endo</t>
   </si>
 </sst>
 </file>
@@ -724,8 +730,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AD3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="U9" sqref="U9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -914,7 +920,98 @@
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:30" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="3" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>40</v>
+      </c>
+      <c r="B3">
+        <v>70</v>
+      </c>
+      <c r="C3" t="s">
+        <v>95</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G3">
+        <v>40.373643141678478</v>
+      </c>
+      <c r="H3" t="s">
+        <v>32</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>1</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3" t="s">
+        <v>34</v>
+      </c>
+      <c r="N3" t="s">
+        <v>34</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>2</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>33</v>
+      </c>
+      <c r="R3" t="s">
+        <v>34</v>
+      </c>
+      <c r="S3" t="s">
+        <v>33</v>
+      </c>
+      <c r="T3" t="s">
+        <v>34</v>
+      </c>
+      <c r="U3" t="s">
+        <v>34</v>
+      </c>
+      <c r="V3" t="s">
+        <v>33</v>
+      </c>
+      <c r="W3">
+        <v>22.033539937572471</v>
+      </c>
+      <c r="X3" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y3">
+        <v>0</v>
+      </c>
+      <c r="Z3">
+        <v>4.717162412719035</v>
+      </c>
+      <c r="AA3">
+        <v>0.6</v>
+      </c>
+      <c r="AB3">
+        <v>0.1045217948752121</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>96</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>36</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -924,8 +1021,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AK4"/>
   <sheetViews>
-    <sheetView topLeftCell="S1" workbookViewId="0">
-      <selection activeCell="AO4" sqref="AO4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1044,8 +1141,8 @@
       </c>
     </row>
     <row r="2" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>39</v>
+      <c r="A2" t="s">
+        <v>94</v>
       </c>
       <c r="B2" t="s">
         <v>72</v>
@@ -1157,8 +1254,8 @@
       </c>
     </row>
     <row r="3" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>39</v>
+      <c r="A3" t="s">
+        <v>94</v>
       </c>
       <c r="B3" t="s">
         <v>73</v>
